--- a/Design/需求文档/表结构.xlsx
+++ b/Design/需求文档/表结构.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>SYS_USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,87 +157,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为用户密码加密后的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于与用户密码加密，系统生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，注册时须邮件认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - 男  ， 1 - 女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - 超级管理员 、 2 - 普通管理员 、 3 - 用户1  、 4 - 用户2  9 - 游客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为用户密码加密后的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于与用户密码加密，系统生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮件地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填，注册时须邮件认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 - 男  ， 1 - 女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 - 超级管理员 、 2 - 普通管理员 、 3 - 用户1  、 4 - 用户2  9 - 游客</t>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -300,16 +324,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -590,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,16 +790,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -778,15 +814,15 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -801,15 +837,15 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -824,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -845,38 +881,38 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -891,10 +927,33 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="C15" s="3">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
